--- a/leetcode_6_check_liuxize.xlsx
+++ b/leetcode_6_check_liuxize.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A848B98D-3B59-D045-8BDF-8B7761870296}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB30077-E436-D546-AB78-49592D21D861}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="460" windowWidth="17360" windowHeight="16080" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
+    <workbookView xWindow="6880" yWindow="460" windowWidth="17360" windowHeight="16020" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -844,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39131D7-F5CA-9844-8689-105AE96F5134}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -895,12 +895,6 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
@@ -915,12 +909,6 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
@@ -935,12 +923,6 @@
       <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
@@ -955,12 +937,6 @@
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
@@ -975,12 +951,6 @@
       <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
@@ -995,12 +965,6 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
@@ -1012,15 +976,7 @@
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
@@ -1032,15 +988,7 @@
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
@@ -1052,15 +1000,7 @@
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
@@ -1072,15 +1012,7 @@
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3">
@@ -1092,15 +1024,7 @@
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3">
@@ -1112,15 +1036,7 @@
       <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3">
@@ -1132,15 +1048,7 @@
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3">
@@ -1152,15 +1060,7 @@
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3">
@@ -1172,15 +1072,7 @@
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="3">
@@ -1192,15 +1084,7 @@
       <c r="C17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3">
@@ -1212,15 +1096,7 @@
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3">
@@ -1232,15 +1108,7 @@
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
@@ -1253,15 +1121,7 @@
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3">
@@ -1273,15 +1133,7 @@
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3">
@@ -1293,15 +1145,7 @@
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3">
@@ -1313,15 +1157,7 @@
       <c r="C23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3">
@@ -1333,15 +1169,7 @@
       <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="6">
@@ -1353,15 +1181,7 @@
       <c r="C25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3">
@@ -1373,15 +1193,7 @@
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3"/>

--- a/leetcode_6_check_liuxize.xlsx
+++ b/leetcode_6_check_liuxize.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB30077-E436-D546-AB78-49592D21D861}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EC53D3-A099-B740-B401-9C18183A108B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6880" yWindow="460" windowWidth="17360" windowHeight="16020" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
+    <workbookView xWindow="6880" yWindow="460" windowWidth="17360" windowHeight="15960" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -845,7 +845,7 @@
   <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -976,7 +976,9 @@
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
@@ -988,7 +990,9 @@
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
@@ -1000,7 +1004,9 @@
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
@@ -1012,7 +1018,9 @@
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3">
@@ -1024,7 +1032,9 @@
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3">
@@ -1036,7 +1046,9 @@
       <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3">
